--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\ChernyBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF6D9D-839D-4DD8-B31D-4A9F8C331BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345E843-7FF5-4C17-B84E-76BC0538B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,10 +467,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,11 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -801,8 +810,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
